--- a/output/fit_clients/fit_round_202.xlsx
+++ b/output/fit_clients/fit_round_202.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1834790692.291849</v>
+        <v>2411284190.714934</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07035923719851415</v>
+        <v>0.07113704513544318</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03980768000713849</v>
+        <v>0.04262842687525725</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>917395319.5276488</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2184682270.002114</v>
+        <v>2432607045.024616</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1647950746246225</v>
+        <v>0.1596435350201175</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04616513388396563</v>
+        <v>0.0322663502774955</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1092341203.640227</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5130040733.557634</v>
+        <v>4537309110.179364</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1231143065969218</v>
+        <v>0.1086015143300897</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03403340592433621</v>
+        <v>0.03321544890058903</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>73</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2565020460.983109</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4031679169.769094</v>
+        <v>2997306508.855501</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07432543267162287</v>
+        <v>0.09480269192179248</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04521133786911692</v>
+        <v>0.03491705729934998</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>75</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2015839586.436107</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2439699649.051751</v>
+        <v>2780916513.283788</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1375873258775121</v>
+        <v>0.1256259885692716</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05239537434370158</v>
+        <v>0.04678781829064164</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>33</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1219849806.515943</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2429339592.319367</v>
+        <v>2207362864.792488</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08435692535760149</v>
+        <v>0.07233068205192215</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03018933770638599</v>
+        <v>0.04248961751650415</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>62</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1214669815.952883</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3273539595.715134</v>
+        <v>2663976348.523275</v>
       </c>
       <c r="F8" t="n">
-        <v>0.183164447720698</v>
+        <v>0.1983336733027993</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02243203974869716</v>
+        <v>0.02705960138456623</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>64</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1636769883.312567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2121836113.966861</v>
+        <v>1390867345.970733</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1599197583088482</v>
+        <v>0.1543254292553681</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03226918272063262</v>
+        <v>0.02915548370103939</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1060918066.665109</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4560653463.449054</v>
+        <v>5680339229.69985</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1868558946946543</v>
+        <v>0.148342364178295</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03342704374270679</v>
+        <v>0.03424668350201723</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>85</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2280326797.001841</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3796485720.913599</v>
+        <v>4169097521.494696</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1537230449349836</v>
+        <v>0.1337249069691976</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04318413784628979</v>
+        <v>0.04615066909296319</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>84</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1898242858.908392</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2792446913.657933</v>
+        <v>2551605003.017422</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1876942290575692</v>
+        <v>0.168509902360244</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04473780971710486</v>
+        <v>0.03656842940132528</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>71</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1396223455.815823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4124722222.453957</v>
+        <v>3906455490.64632</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06800887859264185</v>
+        <v>0.07105428004299745</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02083953514743744</v>
+        <v>0.02450697129184527</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>68</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2062361159.80707</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2640199828.209687</v>
+        <v>2719034665.532858</v>
       </c>
       <c r="F14" t="n">
-        <v>0.139846638359085</v>
+        <v>0.1757030909699454</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03228606175230184</v>
+        <v>0.04080180905752193</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>66</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1320099974.579267</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1424599005.455767</v>
+        <v>1527055884.155661</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09872880721048595</v>
+        <v>0.09737124286972554</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03611851332881835</v>
+        <v>0.03425577730263623</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>712299571.1126628</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1845419614.855444</v>
+        <v>2691719337.748385</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1100578338942633</v>
+        <v>0.1048502137722817</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04651361601843639</v>
+        <v>0.04784074213927109</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>31</v>
-      </c>
-      <c r="J16" t="n">
-        <v>922709896.7084155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3341814132.622818</v>
+        <v>4813826893.458616</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1162132472020538</v>
+        <v>0.121787029571009</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04628366601925983</v>
+        <v>0.05266405317411782</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>59</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1670907133.432812</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3900909683.521205</v>
+        <v>3240726437.400757</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1657869867991307</v>
+        <v>0.1241188477675053</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02622611150831355</v>
+        <v>0.03430526031069542</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>66</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1950454806.752798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>896240091.6507245</v>
+        <v>1108513448.439556</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1405917793187353</v>
+        <v>0.1607301498215415</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02230610741909657</v>
+        <v>0.02476259561766141</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>448120049.7722169</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2049555967.992555</v>
+        <v>1951893382.053242</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1523704031593529</v>
+        <v>0.1551884557887906</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02367426944652132</v>
+        <v>0.02769817585936356</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>33</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1024778005.05383</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2273695229.608547</v>
+        <v>2569416674.7825</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08983843333103118</v>
+        <v>0.08716587658882638</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03726262950566394</v>
+        <v>0.03166766417703906</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>15</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1136847624.557327</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2926857388.175135</v>
+        <v>2514821995.434213</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1414040282492726</v>
+        <v>0.1403316832241903</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04648324286632467</v>
+        <v>0.04882497523314955</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>56</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1463428759.980038</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1520659811.572951</v>
+        <v>1040854185.842758</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1669082907535129</v>
+        <v>0.1776621632427365</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05396012085439137</v>
+        <v>0.05295676607796205</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>760329888.2190806</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2934075374.509824</v>
+        <v>2994183109.261916</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09750156546586201</v>
+        <v>0.1380667619366461</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03754042709121526</v>
+        <v>0.03232204403021863</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>59</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1467037726.920712</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1130682755.201141</v>
+        <v>1022148350.223178</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09410476815794727</v>
+        <v>0.09110498721931842</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02755041280700176</v>
+        <v>0.02931337621661672</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>565341411.5149941</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1114545680.683703</v>
+        <v>1168950583.782521</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07961687854018784</v>
+        <v>0.0798238423858502</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03916436154284442</v>
+        <v>0.0285750786286899</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>557272840.4095033</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4208524334.711889</v>
+        <v>4504407215.42052</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1481658574586244</v>
+        <v>0.1225028467099132</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02687748525552202</v>
+        <v>0.01789586744487926</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>48</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2104262167.116059</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2848080851.619536</v>
+        <v>3037895810.050114</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1492663192653155</v>
+        <v>0.1448719624677179</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04619603526883002</v>
+        <v>0.0370031315526564</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>66</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1424040423.81455</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5797977335.313831</v>
+        <v>4285123680.932902</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09708067330998045</v>
+        <v>0.09848274671279732</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04479936040437685</v>
+        <v>0.04074597634918577</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>91</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2898988559.912112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1895324879.933441</v>
+        <v>1571711626.998608</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08936345403136881</v>
+        <v>0.09034264675578038</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03408999849341787</v>
+        <v>0.03314193882188297</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>947662465.4712405</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1427647250.296391</v>
+        <v>1070423866.868732</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0790117002348561</v>
+        <v>0.0785651333736614</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04589226861262363</v>
+        <v>0.03237903186287474</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>713823523.0106053</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1890479256.395553</v>
+        <v>1843206021.573701</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08389564905375102</v>
+        <v>0.1164601520769384</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0299670134420365</v>
+        <v>0.03032538855196927</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>945239777.4168811</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2442344456.577071</v>
+        <v>2822536570.854219</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2055784774960511</v>
+        <v>0.1351456282708244</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06063800948078626</v>
+        <v>0.04759275427934435</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>61</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1221172271.406582</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1256393652.799314</v>
+        <v>1469154836.044271</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07395689503737252</v>
+        <v>0.07359761770486435</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02701468319418168</v>
+        <v>0.02574110230761523</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>628196822.1586603</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1350324860.367365</v>
+        <v>1304965527.289366</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09087870029143817</v>
+        <v>0.111986721429651</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03540984014245502</v>
+        <v>0.02782222425557912</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>675162371.9200218</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2416291662.534413</v>
+        <v>2658173101.37352</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1340360487383142</v>
+        <v>0.1508255170392355</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01887671330633176</v>
+        <v>0.02009556518910799</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>51</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1208145859.945054</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2818291684.948467</v>
+        <v>1967091367.486485</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08091474947632619</v>
+        <v>0.07418020355206473</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02816102407063889</v>
+        <v>0.03576947471088873</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>53</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1409145982.332526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1651926186.960694</v>
+        <v>2092191740.340189</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08254478689320441</v>
+        <v>0.07365179562066891</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03174029684126048</v>
+        <v>0.03767169020107683</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>825963121.2558491</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1767526115.938104</v>
+        <v>2148142180.006155</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1289174713469083</v>
+        <v>0.1744109848748858</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02191862856174692</v>
+        <v>0.02143879010620213</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>883763087.763676</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1166511922.356868</v>
+        <v>1276142166.835586</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1390346866214656</v>
+        <v>0.125491218516014</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04715140192597703</v>
+        <v>0.05505208327005979</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>583256010.8152483</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2883194985.768744</v>
+        <v>2698659351.488038</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1305901986390333</v>
+        <v>0.1258911946686664</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03548369625805793</v>
+        <v>0.04536068250265014</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>50</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1441597480.59971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3299716123.017536</v>
+        <v>3961699046.180751</v>
       </c>
       <c r="F42" t="n">
-        <v>0.107370988639112</v>
+        <v>0.1115052325980462</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03167643318929292</v>
+        <v>0.04217226215865168</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>66</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1649858042.574434</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2496703664.96473</v>
+        <v>2384926288.833311</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1842357641008811</v>
+        <v>0.1610126756008633</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01572219174330752</v>
+        <v>0.02346811548914362</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>69</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1248351881.454516</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1736569425.200231</v>
+        <v>1821448520.996225</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08482609392484067</v>
+        <v>0.08984952217098138</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03422869365537729</v>
+        <v>0.02893107926431938</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>868284766.3514916</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1715081848.811697</v>
+        <v>2077897150.455887</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1271282078935639</v>
+        <v>0.1751116427347473</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03816193372013456</v>
+        <v>0.03931182845218392</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>857540886.5209479</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3615109620.419783</v>
+        <v>3753945429.880668</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1667681078881857</v>
+        <v>0.1651882627105806</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04360158975129882</v>
+        <v>0.05982989165081171</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>72</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1807554757.725067</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4350376028.022979</v>
+        <v>4974326465.836136</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1752826831922629</v>
+        <v>0.1901791671670915</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03698193175925968</v>
+        <v>0.03914898471356194</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>54</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2175188032.98625</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3127103019.607288</v>
+        <v>3936281260.520013</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09704458707021164</v>
+        <v>0.07018345965417888</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03860955804948417</v>
+        <v>0.03856242683558237</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>66</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1563551594.907704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1578335379.142371</v>
+        <v>1750408682.301334</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1923355933132574</v>
+        <v>0.1308857341868404</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03141310263433212</v>
+        <v>0.03918991406722053</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>789167709.3892775</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3693220545.133396</v>
+        <v>2628405293.684769</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1656768388657051</v>
+        <v>0.1477494510243932</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04257923453110586</v>
+        <v>0.05334088979795367</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>69</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1846610283.046496</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1200168436.134028</v>
+        <v>1454037016.670982</v>
       </c>
       <c r="F51" t="n">
-        <v>0.149589568784762</v>
+        <v>0.1389227145294658</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04741167351301784</v>
+        <v>0.0485426364420312</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>600084269.5717456</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4370188349.830088</v>
+        <v>4153679652.229561</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08984013426115245</v>
+        <v>0.08428875945532388</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04084928453976426</v>
+        <v>0.03912925305153545</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>83</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2185094209.586283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3304390640.843853</v>
+        <v>3636930459.445105</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1448984278227383</v>
+        <v>0.1510910215526284</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0264814974110428</v>
+        <v>0.02961535429662691</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>58</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1652195331.821808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3216884877.400315</v>
+        <v>3797627203.681248</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1404777503884771</v>
+        <v>0.145201970582947</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04140739894295588</v>
+        <v>0.04774993826297799</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>65</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1608442441.268397</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3126062614.776366</v>
+        <v>4959797632.728529</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1500277285476846</v>
+        <v>0.2181406852039447</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02934168828137538</v>
+        <v>0.02778843109644108</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>55</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1563031243.73441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1155389872.159078</v>
+        <v>1156675685.962598</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1287072578947651</v>
+        <v>0.1648887447806069</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04191295244555621</v>
+        <v>0.04178448908719286</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>577695029.3741722</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4068696845.972177</v>
+        <v>3569438828.208138</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1306600618288867</v>
+        <v>0.1168081429347914</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02588326333907013</v>
+        <v>0.02345296153192333</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>65</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2034348517.10606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1369722986.621769</v>
+        <v>1859326950.223095</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1467406992632284</v>
+        <v>0.1472038187647617</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02738064920890872</v>
+        <v>0.03747852277453401</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>684861536.3131045</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4107895587.160746</v>
+        <v>5072157820.55433</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1051730849887872</v>
+        <v>0.1260928709775328</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03023561686468267</v>
+        <v>0.04559208046807496</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>57</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2053947764.3011</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2613599672.733799</v>
+        <v>3393607530.373539</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1948899597649532</v>
+        <v>0.1280964469057172</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0296748497810578</v>
+        <v>0.03237715457345377</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>63</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1306799866.161853</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2940135045.471096</v>
+        <v>2986404801.949947</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1190762449945161</v>
+        <v>0.1118820467892188</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0324098777390028</v>
+        <v>0.03066975775312833</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>71</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1470067508.832591</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2028780258.397517</v>
+        <v>2022988724.806152</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1239387148241509</v>
+        <v>0.1890875603965266</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03156557206956261</v>
+        <v>0.04207778360495866</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1014390191.537074</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5458842541.780066</v>
+        <v>3918223257.3531</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06685592247742769</v>
+        <v>0.09518592918563626</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02963707556886904</v>
+        <v>0.03037806922317802</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>58</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2729421268.173754</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5550564551.994852</v>
+        <v>4337486963.4767</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1351073965947057</v>
+        <v>0.1660668056906691</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02714188925818149</v>
+        <v>0.02672141189213963</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>63</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2775282420.901464</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6021247369.058684</v>
+        <v>3685847952.1086</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1081328979583844</v>
+        <v>0.1450453441808312</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0308865390164915</v>
+        <v>0.02259797865423844</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>73</v>
-      </c>
-      <c r="J65" t="n">
-        <v>3010623582.481981</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3651392329.326157</v>
+        <v>4867841470.578267</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1501955212199849</v>
+        <v>0.1598437416970703</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03211437548161232</v>
+        <v>0.03733574293069647</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>59</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1825696119.544342</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2583912071.214929</v>
+        <v>2827768063.2705</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1004249737582134</v>
+        <v>0.07021350835968011</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05110161463639456</v>
+        <v>0.03226229969970721</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>65</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1291956089.100457</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3935270522.434803</v>
+        <v>5571644237.003433</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09825582847067874</v>
+        <v>0.09907693316234885</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03275883021211437</v>
+        <v>0.04470181633850541</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>65</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1967635253.061744</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1975730770.050713</v>
+        <v>1700666770.566899</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1227084720400022</v>
+        <v>0.1730969893850271</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05840352873494759</v>
+        <v>0.0535434992435409</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>987865386.808906</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3675038800.845152</v>
+        <v>2743687252.280614</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07107603035968442</v>
+        <v>0.07156766691171561</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04174549254031642</v>
+        <v>0.036087632669391</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>58</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1837519421.306012</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4498495792.383919</v>
+        <v>3524303473.38168</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1822902250561461</v>
+        <v>0.1626812115714189</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02329834350558435</v>
+        <v>0.03404843746068314</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>74</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2249247964.469476</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1443730806.157492</v>
+        <v>1520660428.176425</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1066510089303769</v>
+        <v>0.07579655786049214</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04405179291343644</v>
+        <v>0.03233302807492103</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>721865439.1321527</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3192074218.54141</v>
+        <v>2875062185.579712</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07566393554918169</v>
+        <v>0.08665634837819751</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04063044379101623</v>
+        <v>0.03607295934064932</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>78</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1596037087.641782</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3030782606.686843</v>
+        <v>3362293528.483606</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1651202347021774</v>
+        <v>0.1260682501761273</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02609216490709245</v>
+        <v>0.02973765535896821</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>69</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1515391366.058829</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1559376571.758958</v>
+        <v>2488457870.685868</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1446441874192936</v>
+        <v>0.1066668630398578</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03677750365511983</v>
+        <v>0.03129892210459805</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>779688291.4101932</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4402394430.974477</v>
+        <v>4776156177.835699</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1191569749127761</v>
+        <v>0.1096093495432948</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0224118688735108</v>
+        <v>0.02510527839724517</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>50</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2201197217.057706</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2024048796.394968</v>
+        <v>1642312657.230037</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1708917531430927</v>
+        <v>0.1606215308219688</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02146377751640113</v>
+        <v>0.02661394705091926</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1012024463.283913</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4586218665.216842</v>
+        <v>4640728762.024939</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1256309046732703</v>
+        <v>0.09971158413676323</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03489127307547001</v>
+        <v>0.04778456756432378</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>70</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2293109256.383307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1464604388.123648</v>
+        <v>1829214730.347</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1715453740442846</v>
+        <v>0.156744232187505</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02813597231376344</v>
+        <v>0.03960221919202666</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>732302222.0707457</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3851565660.039534</v>
+        <v>3724317733.176261</v>
       </c>
       <c r="F80" t="n">
-        <v>0.10373149051727</v>
+        <v>0.09319928899177003</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02405019744735927</v>
+        <v>0.03309402903860637</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>42</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1925782822.076878</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3452394598.60916</v>
+        <v>4879197337.128867</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09699529567778321</v>
+        <v>0.1079716305301085</v>
       </c>
       <c r="G81" t="n">
-        <v>0.026529027128201</v>
+        <v>0.02217954499240393</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>46</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1726197242.1387</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4642904824.110715</v>
+        <v>4455141853.417415</v>
       </c>
       <c r="F82" t="n">
-        <v>0.195448193724807</v>
+        <v>0.2004396910872713</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0234400046406836</v>
+        <v>0.02563020807707774</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>74</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2321452415.887674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1564250009.903855</v>
+        <v>2004568206.332061</v>
       </c>
       <c r="F83" t="n">
-        <v>0.135861468707539</v>
+        <v>0.1315067996158692</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03878883277972866</v>
+        <v>0.0332056811956965</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>782124935.9618088</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2550284607.791476</v>
+        <v>2045250972.995065</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1013627220400378</v>
+        <v>0.08207108220934688</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03589956721476336</v>
+        <v>0.0339163722824518</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1275142228.277554</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2944313306.356473</v>
+        <v>2789281834.212261</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1655314443551188</v>
+        <v>0.1531677220555831</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0418060180903723</v>
+        <v>0.03674962084651686</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>76</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1472156707.162818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1822457385.971406</v>
+        <v>2378657747.022716</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1342012311996082</v>
+        <v>0.1681523985898146</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0229269129364895</v>
+        <v>0.01981556955045406</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>27</v>
-      </c>
-      <c r="J86" t="n">
-        <v>911228695.8986109</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1240796376.892282</v>
+        <v>1281174326.404712</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1648002782205175</v>
+        <v>0.1479446984615384</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0411445541781603</v>
+        <v>0.04116252923103187</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>620398254.469795</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2549716086.025762</v>
+        <v>2265045385.035771</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1761755768905685</v>
+        <v>0.1137075603310231</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03602792703884933</v>
+        <v>0.03198634222504112</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>80</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1274858028.938679</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2935166375.997619</v>
+        <v>3158841773.006669</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1096250998704568</v>
+        <v>0.1571774176656901</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04012962641167003</v>
+        <v>0.03303168049408248</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>69</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1467583230.855484</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2172550986.570837</v>
+        <v>1954116507.720622</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08538843744108698</v>
+        <v>0.116746687983483</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04800831565051638</v>
+        <v>0.03927801319753252</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1086275595.093241</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1572862918.755835</v>
+        <v>1304335112.744858</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1576632345907204</v>
+        <v>0.1824565050101501</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0558531408647677</v>
+        <v>0.05397503965929699</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>786431488.5790708</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2047787001.757399</v>
+        <v>2707487844.389059</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07014281663119107</v>
+        <v>0.07684232030100818</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04239774103914349</v>
+        <v>0.03565673595095371</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>49</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1023893450.656163</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3694434523.053016</v>
+        <v>3802383989.008174</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0920642066604809</v>
+        <v>0.1035863922148781</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04177963342648547</v>
+        <v>0.04029093286740356</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>62</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1847217281.86022</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2366367062.788455</v>
+        <v>1571965455.543364</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1545553062012305</v>
+        <v>0.1542573782706199</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0338135636344427</v>
+        <v>0.03194011242949404</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1183183577.467315</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2626413788.239523</v>
+        <v>2088130700.025037</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08834536849051765</v>
+        <v>0.1314180218812185</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05234281806798947</v>
+        <v>0.03472108708388385</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>48</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1313206920.984513</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1473928911.621317</v>
+        <v>1793317999.639743</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1309650607559027</v>
+        <v>0.1368180269166982</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02897411919452577</v>
+        <v>0.03656451579175963</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>736964498.9278289</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3295369774.983856</v>
+        <v>3604245508.662965</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1749389825663213</v>
+        <v>0.1555955098044975</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02224678626953959</v>
+        <v>0.02144108246640318</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>66</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1647684887.182111</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3872711988.557022</v>
+        <v>3271596405.386607</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09017365661828013</v>
+        <v>0.07871657571043832</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02459402392097651</v>
+        <v>0.02501828242141917</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>53</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1936356038.133776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2072113250.421938</v>
+        <v>3202877771.346448</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1280090110496595</v>
+        <v>0.1290016017731552</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03005068224799281</v>
+        <v>0.03294199250294463</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>62</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1036056543.951424</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3781490322.765449</v>
+        <v>3615999950.759144</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1121171753346995</v>
+        <v>0.1144524684514688</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02470055515636344</v>
+        <v>0.02522070975762432</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>62</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1890745214.593215</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2701286293.577747</v>
+        <v>2967653013.308998</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1406740544186416</v>
+        <v>0.1986468019925959</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05385659638296012</v>
+        <v>0.03671159089822777</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>82</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1350643196.337029</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_202.xlsx
+++ b/output/fit_clients/fit_round_202.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2411284190.714934</v>
+        <v>2161470039.320787</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07113704513544318</v>
+        <v>0.07739380847006556</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04262842687525725</v>
+        <v>0.04535241916244316</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2432607045.024616</v>
+        <v>2326582438.057565</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1596435350201175</v>
+        <v>0.1234523295536963</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0322663502774955</v>
+        <v>0.04982770461449005</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4537309110.179364</v>
+        <v>4249709333.099739</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1086015143300897</v>
+        <v>0.16238412491247</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03321544890058903</v>
+        <v>0.02932629207758245</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2997306508.855501</v>
+        <v>4260501164.08591</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09480269192179248</v>
+        <v>0.07847628756008271</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03491705729934998</v>
+        <v>0.04751484344426975</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2780916513.283788</v>
+        <v>2250469554.625216</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1256259885692716</v>
+        <v>0.09816866938140079</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04678781829064164</v>
+        <v>0.03902780282693943</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2207362864.792488</v>
+        <v>2201983556.733787</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07233068205192215</v>
+        <v>0.0802806934467345</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04248961751650415</v>
+        <v>0.03679229795612532</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2663976348.523275</v>
+        <v>3248671152.577537</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1983336733027993</v>
+        <v>0.1761531858032418</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02705960138456623</v>
+        <v>0.03208287301932591</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1390867345.970733</v>
+        <v>2100036253.22279</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1543254292553681</v>
+        <v>0.147934757822559</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02915548370103939</v>
+        <v>0.03671738249789142</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5680339229.69985</v>
+        <v>3720313997.87103</v>
       </c>
       <c r="F10" t="n">
-        <v>0.148342364178295</v>
+        <v>0.1854419242831573</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03424668350201723</v>
+        <v>0.03572725175099183</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4169097521.494696</v>
+        <v>3034413948.877893</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1337249069691976</v>
+        <v>0.1202787375127302</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04615066909296319</v>
+        <v>0.0322031593821281</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2551605003.017422</v>
+        <v>2906242286.824461</v>
       </c>
       <c r="F12" t="n">
-        <v>0.168509902360244</v>
+        <v>0.1449411810677732</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03656842940132528</v>
+        <v>0.05274871478168514</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3906455490.64632</v>
+        <v>3668241999.896153</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07105428004299745</v>
+        <v>0.09675900069713227</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02450697129184527</v>
+        <v>0.02622365246332206</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2719034665.532858</v>
+        <v>3722225334.503365</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1757030909699454</v>
+        <v>0.1502994929784143</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04080180905752193</v>
+        <v>0.04275364476492946</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1527055884.155661</v>
+        <v>1783957108.40002</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09737124286972554</v>
+        <v>0.08195822543112649</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03425577730263623</v>
+        <v>0.03449194277243733</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2691719337.748385</v>
+        <v>1781429291.128166</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1048502137722817</v>
+        <v>0.09265220504010262</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04784074213927109</v>
+        <v>0.04198821368851807</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4813826893.458616</v>
+        <v>4851445027.238439</v>
       </c>
       <c r="F17" t="n">
-        <v>0.121787029571009</v>
+        <v>0.1416590751832774</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05266405317411782</v>
+        <v>0.04741867373657592</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3240726437.400757</v>
+        <v>2909789059.059233</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1241188477675053</v>
+        <v>0.1788335024991666</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03430526031069542</v>
+        <v>0.02760085484265885</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1108513448.439556</v>
+        <v>1209399914.524307</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1607301498215415</v>
+        <v>0.1526379388867352</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02476259561766141</v>
+        <v>0.02662585965505263</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1951893382.053242</v>
+        <v>2521333341.340367</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1551884557887906</v>
+        <v>0.1304921151532414</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02769817585936356</v>
+        <v>0.02901095152630046</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2569416674.7825</v>
+        <v>2556489541.986483</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08716587658882638</v>
+        <v>0.07937281541479262</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03166766417703906</v>
+        <v>0.04281136382331029</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2514821995.434213</v>
+        <v>3651238967.488873</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1403316832241903</v>
+        <v>0.1410576444735044</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04882497523314955</v>
+        <v>0.04341888267678997</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1040854185.842758</v>
+        <v>1267836530.748865</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1776621632427365</v>
+        <v>0.1283901284962617</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05295676607796205</v>
+        <v>0.05432839478820092</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2994183109.261916</v>
+        <v>3384834523.617232</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1380667619366461</v>
+        <v>0.1134553566403205</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03232204403021863</v>
+        <v>0.03370764200137649</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1022148350.223178</v>
+        <v>1410741372.631034</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09110498721931842</v>
+        <v>0.0740007019073966</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02931337621661672</v>
+        <v>0.02214066778531827</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,16 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1168950583.782521</v>
+        <v>1076793980.93872</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0798238423858502</v>
+        <v>0.07782401440600598</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0285750786286899</v>
+        <v>0.03382811078509552</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4504407215.42052</v>
+        <v>4706968181.862645</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1225028467099132</v>
+        <v>0.1144193505605267</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01789586744487926</v>
+        <v>0.02474161351156728</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3037895810.050114</v>
+        <v>3828171409.699746</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1448719624677179</v>
+        <v>0.1119168510514497</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0370031315526564</v>
+        <v>0.03351831225291677</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4285123680.932902</v>
+        <v>4808572397.988347</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09848274671279732</v>
+        <v>0.09225356728163246</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04074597634918577</v>
+        <v>0.03853228732398512</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1571711626.998608</v>
+        <v>2254096700.695412</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09034264675578038</v>
+        <v>0.1237141273339384</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03314193882188297</v>
+        <v>0.03652097883925357</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1070423866.868732</v>
+        <v>1070568927.918007</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0785651333736614</v>
+        <v>0.1009585400931011</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03237903186287474</v>
+        <v>0.03696153721825054</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1843206021.573701</v>
+        <v>1171831492.225119</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1164601520769384</v>
+        <v>0.07405394761973459</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03032538855196927</v>
+        <v>0.03011767045863291</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2822536570.854219</v>
+        <v>2675354491.947707</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1351456282708244</v>
+        <v>0.1259189038091652</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04759275427934435</v>
+        <v>0.04421466114241576</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1469154836.044271</v>
+        <v>1259168661.836643</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07359761770486435</v>
+        <v>0.08110211931717314</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02574110230761523</v>
+        <v>0.02287393036201502</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1304965527.289366</v>
+        <v>940520536.985382</v>
       </c>
       <c r="F35" t="n">
-        <v>0.111986721429651</v>
+        <v>0.11730384421509</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02782222425557912</v>
+        <v>0.03605288208173306</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2658173101.37352</v>
+        <v>2949732755.614644</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1508255170392355</v>
+        <v>0.116858516098252</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02009556518910799</v>
+        <v>0.02582025385584683</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1967091367.486485</v>
+        <v>2459804112.145947</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07418020355206473</v>
+        <v>0.08437486627165106</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03576947471088873</v>
+        <v>0.02710938743158451</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2092191740.340189</v>
+        <v>1504458209.932216</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07365179562066891</v>
+        <v>0.1211388656666347</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03767169020107683</v>
+        <v>0.03599091226354766</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2148142180.006155</v>
+        <v>2185154704.700051</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1744109848748858</v>
+        <v>0.1822277394414443</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02143879010620213</v>
+        <v>0.02694428428696762</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1276142166.835586</v>
+        <v>1664852507.270002</v>
       </c>
       <c r="F40" t="n">
-        <v>0.125491218516014</v>
+        <v>0.1221347912822352</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05505208327005979</v>
+        <v>0.04861212757074507</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2698659351.488038</v>
+        <v>2130311839.974728</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1258911946686664</v>
+        <v>0.1218634164160109</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04536068250265014</v>
+        <v>0.03041661142410981</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3961699046.180751</v>
+        <v>4084192931.419341</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1115052325980462</v>
+        <v>0.09454820637487116</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04217226215865168</v>
+        <v>0.04006111667791589</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2384926288.833311</v>
+        <v>2562719164.617595</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1610126756008633</v>
+        <v>0.1729161115228574</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02346811548914362</v>
+        <v>0.02135402865020108</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1821448520.996225</v>
+        <v>1809596202.590892</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08984952217098138</v>
+        <v>0.06243412399585668</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02893107926431938</v>
+        <v>0.02434915531833746</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2077897150.455887</v>
+        <v>1703128207.012823</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1751116427347473</v>
+        <v>0.1584766561770134</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03931182845218392</v>
+        <v>0.04253980965011176</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3753945429.880668</v>
+        <v>5323672961.476165</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1651882627105806</v>
+        <v>0.1471476241424053</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05982989165081171</v>
+        <v>0.04034007319349769</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4974326465.836136</v>
+        <v>4893321755.197138</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1901791671670915</v>
+        <v>0.1405149163690829</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03914898471356194</v>
+        <v>0.03669630405794434</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3936281260.520013</v>
+        <v>3645280841.703907</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07018345965417888</v>
+        <v>0.1016016159356294</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03856242683558237</v>
+        <v>0.03803762164075618</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1750408682.301334</v>
+        <v>1573763569.94257</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1308857341868404</v>
+        <v>0.173164421113318</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03918991406722053</v>
+        <v>0.03373236133953644</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2628405293.684769</v>
+        <v>2837813536.83771</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1477494510243932</v>
+        <v>0.1176793936967167</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05334088979795367</v>
+        <v>0.03541175429006371</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1454037016.670982</v>
+        <v>1319988196.78988</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1389227145294658</v>
+        <v>0.1687876762360975</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0485426364420312</v>
+        <v>0.03662821533549601</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4153679652.229561</v>
+        <v>3440292924.162874</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08428875945532388</v>
+        <v>0.1004500821488544</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03912925305153545</v>
+        <v>0.05446498229146197</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3636930459.445105</v>
+        <v>2689906468.34747</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1510910215526284</v>
+        <v>0.1262860552635887</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02961535429662691</v>
+        <v>0.02826014885968556</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3797627203.681248</v>
+        <v>3073746770.144657</v>
       </c>
       <c r="F54" t="n">
-        <v>0.145201970582947</v>
+        <v>0.1182013819508267</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04774993826297799</v>
+        <v>0.05089410673864217</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4959797632.728529</v>
+        <v>4369652978.49525</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2181406852039447</v>
+        <v>0.1909260568574783</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02778843109644108</v>
+        <v>0.03002509877450171</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1156675685.962598</v>
+        <v>1664605878.120897</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1648887447806069</v>
+        <v>0.1420516123588697</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04178448908719286</v>
+        <v>0.04450998862448394</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3569438828.208138</v>
+        <v>3884851178.283284</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1168081429347914</v>
+        <v>0.1301085283536293</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02345296153192333</v>
+        <v>0.02431891280861165</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1859326950.223095</v>
+        <v>1415839744.160548</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1472038187647617</v>
+        <v>0.1451517558212611</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03747852277453401</v>
+        <v>0.02789265475454609</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5072157820.55433</v>
+        <v>3934736909.004457</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1260928709775328</v>
+        <v>0.1266050291231137</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04559208046807496</v>
+        <v>0.04773326939941743</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3393607530.373539</v>
+        <v>2642700634.08447</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1280964469057172</v>
+        <v>0.1974587708602834</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03237715457345377</v>
+        <v>0.02244727393985041</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2986404801.949947</v>
+        <v>3340984371.868114</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1118820467892188</v>
+        <v>0.1370925743681281</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03066975775312833</v>
+        <v>0.02928222928725965</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2022988724.806152</v>
+        <v>1417878866.030511</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1890875603965266</v>
+        <v>0.1614703471253587</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04207778360495866</v>
+        <v>0.04856144745616731</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3918223257.3531</v>
+        <v>4846716615.806338</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09518592918563626</v>
+        <v>0.0939445702583325</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03037806922317802</v>
+        <v>0.04248215974383623</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4337486963.4767</v>
+        <v>3543893818.198167</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1660668056906691</v>
+        <v>0.1667220695571732</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02672141189213963</v>
+        <v>0.03363082311688139</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3685847952.1086</v>
+        <v>4621586427.393445</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1450453441808312</v>
+        <v>0.1078372477098737</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02259797865423844</v>
+        <v>0.02772606022305824</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4867841470.578267</v>
+        <v>5339156524.59164</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1598437416970703</v>
+        <v>0.1533733535632498</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03733574293069647</v>
+        <v>0.04076113245525553</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2827768063.2705</v>
+        <v>3018515125.060818</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07021350835968011</v>
+        <v>0.06767743392030749</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03226229969970721</v>
+        <v>0.04646328192936292</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5571644237.003433</v>
+        <v>3740164708.935168</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09907693316234885</v>
+        <v>0.1014997723468144</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04470181633850541</v>
+        <v>0.04663738673064026</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1700666770.566899</v>
+        <v>1681928120.642628</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1730969893850271</v>
+        <v>0.1480422141772255</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0535434992435409</v>
+        <v>0.04818304952464891</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2743687252.280614</v>
+        <v>3231951550.027482</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07156766691171561</v>
+        <v>0.09093120462313685</v>
       </c>
       <c r="G70" t="n">
-        <v>0.036087632669391</v>
+        <v>0.04931968110996775</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3524303473.38168</v>
+        <v>3466940957.50793</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1626812115714189</v>
+        <v>0.132897701820115</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03404843746068314</v>
+        <v>0.02549431627715226</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1520660428.176425</v>
+        <v>1739166193.059877</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07579655786049214</v>
+        <v>0.1057937360639503</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03233302807492103</v>
+        <v>0.03764818235240847</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2875062185.579712</v>
+        <v>2267518408.55304</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08665634837819751</v>
+        <v>0.08294322307725607</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03607295934064932</v>
+        <v>0.05107763018285279</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3362293528.483606</v>
+        <v>3496893926.784103</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1260682501761273</v>
+        <v>0.1809817963188153</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02973765535896821</v>
+        <v>0.03087624070753918</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2488457870.685868</v>
+        <v>1935403983.641355</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1066668630398578</v>
+        <v>0.1140354445366634</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03129892210459805</v>
+        <v>0.02924949429349984</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4776156177.835699</v>
+        <v>3341130975.114843</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1096093495432948</v>
+        <v>0.09922437255110679</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02510527839724517</v>
+        <v>0.02413432895954678</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1642312657.230037</v>
+        <v>1762343733.562309</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1606215308219688</v>
+        <v>0.1453959911036715</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02661394705091926</v>
+        <v>0.02137273952286283</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4640728762.024939</v>
+        <v>3231507548.285809</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09971158413676323</v>
+        <v>0.09361165117253908</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04778456756432378</v>
+        <v>0.05557932433343143</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1829214730.347</v>
+        <v>1880844794.513281</v>
       </c>
       <c r="F79" t="n">
-        <v>0.156744232187505</v>
+        <v>0.1490165318283558</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03960221919202666</v>
+        <v>0.03160473916203243</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3724317733.176261</v>
+        <v>4004783412.684601</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09319928899177003</v>
+        <v>0.06929967727448549</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03309402903860637</v>
+        <v>0.03283533472311909</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4879197337.128867</v>
+        <v>3368798115.331203</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1079716305301085</v>
+        <v>0.1248931278004547</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02217954499240393</v>
+        <v>0.03040388028148541</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4455141853.417415</v>
+        <v>4067435801.612872</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2004396910872713</v>
+        <v>0.1927998158293016</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02563020807707774</v>
+        <v>0.0254703511162609</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2004568206.332061</v>
+        <v>1803783921.905183</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1315067996158692</v>
+        <v>0.1111821254742869</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0332056811956965</v>
+        <v>0.03363273619198955</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,16 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2045250972.995065</v>
+        <v>2600532159.077376</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08207108220934688</v>
+        <v>0.07505280182641855</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0339163722824518</v>
+        <v>0.04289735979598289</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2789281834.212261</v>
+        <v>3487639924.47373</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1531677220555831</v>
+        <v>0.1784916082636318</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03674962084651686</v>
+        <v>0.05441895759566052</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2378657747.022716</v>
+        <v>2341858047.037363</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1681523985898146</v>
+        <v>0.1644142387827925</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01981556955045406</v>
+        <v>0.02562939919065004</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1281174326.404712</v>
+        <v>1132844562.854837</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1479446984615384</v>
+        <v>0.1583849370681838</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04116252923103187</v>
+        <v>0.03331035277242052</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2265045385.035771</v>
+        <v>2452223073.392661</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1137075603310231</v>
+        <v>0.1086859860280345</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03198634222504112</v>
+        <v>0.03569203706733034</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3158841773.006669</v>
+        <v>3294709825.714414</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1571774176656901</v>
+        <v>0.1400397295161412</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03303168049408248</v>
+        <v>0.03167010194471194</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1954116507.720622</v>
+        <v>1313943699.464723</v>
       </c>
       <c r="F90" t="n">
-        <v>0.116746687983483</v>
+        <v>0.1264985894534151</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03927801319753252</v>
+        <v>0.05624521644036721</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1304335112.744858</v>
+        <v>1865107508.976998</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1824565050101501</v>
+        <v>0.1849118531858585</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05397503965929699</v>
+        <v>0.04122393627048188</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2707487844.389059</v>
+        <v>2637598935.143271</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07684232030100818</v>
+        <v>0.08736901882717074</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03565673595095371</v>
+        <v>0.03709297901909102</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3802383989.008174</v>
+        <v>3572477486.023678</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1035863922148781</v>
+        <v>0.125890914498441</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04029093286740356</v>
+        <v>0.03853688968496791</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1571965455.543364</v>
+        <v>1959721895.771832</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1542573782706199</v>
+        <v>0.1139147821493038</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03194011242949404</v>
+        <v>0.03429166174445169</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,16 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2088130700.025037</v>
+        <v>2299720164.462639</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1314180218812185</v>
+        <v>0.08376036966077795</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03472108708388385</v>
+        <v>0.04143888694772511</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1793317999.639743</v>
+        <v>2292947345.695793</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1368180269166982</v>
+        <v>0.09366406322452769</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03656451579175963</v>
+        <v>0.03210815733954282</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3604245508.662965</v>
+        <v>3727130961.768512</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1555955098044975</v>
+        <v>0.167584031110979</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02144108246640318</v>
+        <v>0.01818479716894634</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3271596405.386607</v>
+        <v>2449791289.347891</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07871657571043832</v>
+        <v>0.09153479591989076</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02501828242141917</v>
+        <v>0.02705633296859712</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3202877771.346448</v>
+        <v>2544500232.86288</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1290016017731552</v>
+        <v>0.1167441185518985</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03294199250294463</v>
+        <v>0.02279229152874681</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3615999950.759144</v>
+        <v>4144243816.656344</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1144524684514688</v>
+        <v>0.1354540698287556</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02522070975762432</v>
+        <v>0.02296125878628763</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2967653013.308998</v>
+        <v>2354462078.579914</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1986468019925959</v>
+        <v>0.1627469555815893</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03671159089822777</v>
+        <v>0.04566732714866104</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_202.xlsx
+++ b/output/fit_clients/fit_round_202.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2161470039.320787</v>
+        <v>1553261997.723805</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07739380847006556</v>
+        <v>0.1004310131513667</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04535241916244316</v>
+        <v>0.04321781142032489</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2326582438.057565</v>
+        <v>1702700982.728217</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1234523295536963</v>
+        <v>0.1259931507006035</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04982770461449005</v>
+        <v>0.04230510882204186</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4249709333.099739</v>
+        <v>4927029022.88246</v>
       </c>
       <c r="F4" t="n">
-        <v>0.16238412491247</v>
+        <v>0.1198762305554595</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02932629207758245</v>
+        <v>0.0335662376079252</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>111</v>
+      </c>
+      <c r="J4" t="n">
+        <v>201</v>
+      </c>
+      <c r="K4" t="n">
+        <v>117.4040634378279</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4260501164.08591</v>
+        <v>3805375413.559258</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07847628756008271</v>
+        <v>0.07052872670780082</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04751484344426975</v>
+        <v>0.03873604292385078</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>84</v>
+      </c>
+      <c r="J5" t="n">
+        <v>199</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2250469554.625216</v>
+        <v>2541444714.335188</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09816866938140079</v>
+        <v>0.1284548921483935</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03902780282693943</v>
+        <v>0.03430541230498076</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2201983556.733787</v>
+        <v>2534143578.092586</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0802806934467345</v>
+        <v>0.09047734743107981</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03679229795612532</v>
+        <v>0.03024520479116348</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3248671152.577537</v>
+        <v>3734948475.796314</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1761531858032418</v>
+        <v>0.1837101812777392</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03208287301932591</v>
+        <v>0.0326613280422858</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>57</v>
+      </c>
+      <c r="J8" t="n">
+        <v>199</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2100036253.22279</v>
+        <v>2051096611.752983</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147934757822559</v>
+        <v>0.1701278154237873</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03671738249789142</v>
+        <v>0.02353836922759762</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3720313997.87103</v>
+        <v>5756487592.487923</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1854419242831573</v>
+        <v>0.1387746398238182</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03572725175099183</v>
+        <v>0.04514238571536185</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>185</v>
+      </c>
+      <c r="J10" t="n">
+        <v>202</v>
+      </c>
+      <c r="K10" t="n">
+        <v>128.6066349196579</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +820,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3034413948.877893</v>
+        <v>2957036973.869482</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1202787375127302</v>
+        <v>0.1888796934508946</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0322031593821281</v>
+        <v>0.0429363153214154</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>83</v>
+      </c>
+      <c r="J11" t="n">
+        <v>200</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2906242286.824461</v>
+        <v>2284582615.721924</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1449411810677732</v>
+        <v>0.1649892230924969</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05274871478168514</v>
+        <v>0.03627945221482695</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3668241999.896153</v>
+        <v>3475982877.644243</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09675900069713227</v>
+        <v>0.07294600267227756</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02622365246332206</v>
+        <v>0.03061051505304333</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>101</v>
+      </c>
+      <c r="J13" t="n">
+        <v>201</v>
+      </c>
+      <c r="K13" t="n">
+        <v>99.64340555004472</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +927,25 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3722225334.503365</v>
+        <v>2942023788.542618</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1502994929784143</v>
+        <v>0.1827181877636776</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04275364476492946</v>
+        <v>0.03521109171201633</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>39</v>
+      </c>
+      <c r="J14" t="n">
+        <v>201</v>
+      </c>
+      <c r="K14" t="n">
+        <v>72.58210833403257</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1783957108.40002</v>
+        <v>1124179346.879989</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08195822543112649</v>
+        <v>0.07140558050708376</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03449194277243733</v>
+        <v>0.03439794481980674</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1781429291.128166</v>
+        <v>2590224398.548411</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09265220504010262</v>
+        <v>0.1098908580109785</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04198821368851807</v>
+        <v>0.03305092617056751</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4851445027.238439</v>
+        <v>3759461308.10942</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1416590751832774</v>
+        <v>0.1377614263866266</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04741867373657592</v>
+        <v>0.04366323388968545</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>97</v>
+      </c>
+      <c r="J17" t="n">
+        <v>201</v>
+      </c>
+      <c r="K17" t="n">
+        <v>108.2818960399505</v>
       </c>
     </row>
     <row r="18">
@@ -934,16 +1071,25 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2909789059.059233</v>
+        <v>3719540718.502793</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1788335024991666</v>
+        <v>0.1130963596826948</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02760085484265885</v>
+        <v>0.02640442197788476</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>52</v>
+      </c>
+      <c r="J18" t="n">
+        <v>201</v>
+      </c>
+      <c r="K18" t="n">
+        <v>114.2443377321405</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1102,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1209399914.524307</v>
+        <v>974038484.581643</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1526379388867352</v>
+        <v>0.1292129679603371</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02662585965505263</v>
+        <v>0.02615468820541267</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1137,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2521333341.340367</v>
+        <v>2226615308.514701</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1304921151532414</v>
+        <v>0.1612621355239258</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02901095152630046</v>
+        <v>0.02920855409404788</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1178,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2556489541.986483</v>
+        <v>1643287037.727235</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07937281541479262</v>
+        <v>0.09093087692883152</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04281136382331029</v>
+        <v>0.04294076557910307</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1207,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3651238967.488873</v>
+        <v>3835418095.423341</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1410576444735044</v>
+        <v>0.09332595823929453</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04341888267678997</v>
+        <v>0.05735072393341314</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>51</v>
+      </c>
+      <c r="J22" t="n">
+        <v>198</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1267836530.748865</v>
+        <v>1164930004.192815</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1283901284962617</v>
+        <v>0.1526871167387769</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05432839478820092</v>
+        <v>0.03457596696274624</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1277,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3384834523.617232</v>
+        <v>4135719822.343978</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1134553566403205</v>
+        <v>0.09509360853076812</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03370764200137649</v>
+        <v>0.03638837288893193</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>63</v>
+      </c>
+      <c r="J24" t="n">
+        <v>201</v>
+      </c>
+      <c r="K24" t="n">
+        <v>109.0987116099052</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1314,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1410741372.631034</v>
+        <v>1336088551.020165</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0740007019073966</v>
+        <v>0.1129978520775723</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02214066778531827</v>
+        <v>0.01989207914863658</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1349,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1076793980.93872</v>
+        <v>1248894896.413085</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07782401440600598</v>
+        <v>0.1045330752346044</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03382811078509552</v>
+        <v>0.03299027226971203</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1390,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4706968181.862645</v>
+        <v>3866512787.814986</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1144193505605267</v>
+        <v>0.141031071884207</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02474161351156728</v>
+        <v>0.02559378741134946</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>80</v>
+      </c>
+      <c r="J27" t="n">
+        <v>201</v>
+      </c>
+      <c r="K27" t="n">
+        <v>102.4874839331296</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1421,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3828171409.699746</v>
+        <v>3446607076.376519</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1119168510514497</v>
+        <v>0.1352852254137255</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03351831225291677</v>
+        <v>0.04179837699559751</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>42</v>
+      </c>
+      <c r="J28" t="n">
+        <v>201</v>
+      </c>
+      <c r="K28" t="n">
+        <v>97.10824384466973</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1458,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4808572397.988347</v>
+        <v>4584306947.613756</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09225356728163246</v>
+        <v>0.1253801609417571</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03853228732398512</v>
+        <v>0.02972036243800114</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>191</v>
+      </c>
+      <c r="J29" t="n">
+        <v>202</v>
+      </c>
+      <c r="K29" t="n">
+        <v>134.9858245738862</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1495,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2254096700.695412</v>
+        <v>1714004481.958479</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1237141273339384</v>
+        <v>0.125627015715194</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03652097883925357</v>
+        <v>0.03607093296532709</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1536,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1070568927.918007</v>
+        <v>984786035.8506457</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1009585400931011</v>
+        <v>0.08378747919305268</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03696153721825054</v>
+        <v>0.04571377238084252</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1565,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1171831492.225119</v>
+        <v>1704936366.735352</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07405394761973459</v>
+        <v>0.0733456263671514</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03011767045863291</v>
+        <v>0.03334937906648636</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1600,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2675354491.947707</v>
+        <v>2210729435.682028</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1259189038091652</v>
+        <v>0.1726780458503713</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04421466114241576</v>
+        <v>0.04246415845803557</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1641,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1259168661.836643</v>
+        <v>1380112255.39648</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08110211931717314</v>
+        <v>0.08566697930082648</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02287393036201502</v>
+        <v>0.02666666855976018</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1670,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>940520536.985382</v>
+        <v>941844129.7836871</v>
       </c>
       <c r="F35" t="n">
-        <v>0.11730384421509</v>
+        <v>0.07777758399886882</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03605288208173306</v>
+        <v>0.03304365637686741</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1705,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2949732755.614644</v>
+        <v>2220561715.563844</v>
       </c>
       <c r="F36" t="n">
-        <v>0.116858516098252</v>
+        <v>0.1129118682787049</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02582025385584683</v>
+        <v>0.02420398553091412</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1740,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2459804112.145947</v>
+        <v>2449840499.3691</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08437486627165106</v>
+        <v>0.08238340718833985</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02710938743158451</v>
+        <v>0.03003045903304723</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1775,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1504458209.932216</v>
+        <v>1322430637.7703</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1211388656666347</v>
+        <v>0.1198860570172084</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03599091226354766</v>
+        <v>0.03380577680094445</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1810,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2185154704.700051</v>
+        <v>2210934517.485964</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1822277394414443</v>
+        <v>0.1518276288768598</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02694428428696762</v>
+        <v>0.02747059288739311</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1851,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1664852507.270002</v>
+        <v>1567392007.324306</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1221347912822352</v>
+        <v>0.1093345428733594</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04861212757074507</v>
+        <v>0.03708887791704357</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1880,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2130311839.974728</v>
+        <v>2120416868.271933</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1218634164160109</v>
+        <v>0.1017857891204651</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03041661142410981</v>
+        <v>0.04198395336848105</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1915,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4084192931.419341</v>
+        <v>3793923312.298039</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09454820637487116</v>
+        <v>0.1244383437456602</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04006111667791589</v>
+        <v>0.04139678371475085</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>80</v>
+      </c>
+      <c r="J42" t="n">
+        <v>202</v>
+      </c>
+      <c r="K42" t="n">
+        <v>121.7304995075078</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1952,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2562719164.617595</v>
+        <v>1866303931.758774</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1729161115228574</v>
+        <v>0.1568652988405822</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02135402865020108</v>
+        <v>0.0216872631787012</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1987,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1809596202.590892</v>
+        <v>1900066339.857552</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06243412399585668</v>
+        <v>0.07179402675260813</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02434915531833746</v>
+        <v>0.02775925701803212</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2022,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1703128207.012823</v>
+        <v>2132328348.654459</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1584766561770134</v>
+        <v>0.1375681978121865</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04253980965011176</v>
+        <v>0.05083371676497749</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2063,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5323672961.476165</v>
+        <v>4585917276.207734</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1471476241424053</v>
+        <v>0.1605362653671012</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04034007319349769</v>
+        <v>0.04596301367763345</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>115</v>
+      </c>
+      <c r="J46" t="n">
+        <v>202</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2092,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4893321755.197138</v>
+        <v>4202019000.224009</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1405149163690829</v>
+        <v>0.1363677670694494</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03669630405794434</v>
+        <v>0.05287941480252788</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>90</v>
+      </c>
+      <c r="J47" t="n">
+        <v>202</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2127,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3645280841.703907</v>
+        <v>3651902191.226048</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1016016159356294</v>
+        <v>0.08033311563172264</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03803762164075618</v>
+        <v>0.035106699317551</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>98</v>
+      </c>
+      <c r="J48" t="n">
+        <v>200</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2162,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1573763569.94257</v>
+        <v>1965035174.178678</v>
       </c>
       <c r="F49" t="n">
-        <v>0.173164421113318</v>
+        <v>0.1182536250234375</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03373236133953644</v>
+        <v>0.03342298268407645</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2197,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2837813536.83771</v>
+        <v>3465841982.375116</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1176793936967167</v>
+        <v>0.1512861192870509</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03541175429006371</v>
+        <v>0.03605589270524676</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>63</v>
+      </c>
+      <c r="J50" t="n">
+        <v>199</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2238,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1319988196.78988</v>
+        <v>1515709928.026813</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1687876762360975</v>
+        <v>0.1214121926815324</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03662821533549601</v>
+        <v>0.05135442887824133</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2273,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3440292924.162874</v>
+        <v>4059507309.758123</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1004500821488544</v>
+        <v>0.1075928120461536</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05446498229146197</v>
+        <v>0.05784946927191321</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>139</v>
+      </c>
+      <c r="J52" t="n">
+        <v>201</v>
+      </c>
+      <c r="K52" t="n">
+        <v>117.391058514022</v>
       </c>
     </row>
     <row r="53">
@@ -1914,16 +2310,25 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2689906468.34747</v>
+        <v>3077779153.964022</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1262860552635887</v>
+        <v>0.1483211819834119</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02826014885968556</v>
+        <v>0.0350525276950465</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>27</v>
+      </c>
+      <c r="J53" t="n">
+        <v>201</v>
+      </c>
+      <c r="K53" t="n">
+        <v>74.21328469358801</v>
       </c>
     </row>
     <row r="54">
@@ -1942,16 +2347,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3073746770.144657</v>
+        <v>3641703126.870646</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1182013819508267</v>
+        <v>0.1212131395027884</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05089410673864217</v>
+        <v>0.04199598098257348</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>104</v>
+      </c>
+      <c r="J54" t="n">
+        <v>201</v>
+      </c>
+      <c r="K54" t="n">
+        <v>111.661976107237</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2378,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4369652978.49525</v>
+        <v>4374712975.200977</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1909260568574783</v>
+        <v>0.1784274218887617</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03002509877450171</v>
+        <v>0.02398329221280799</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>90</v>
+      </c>
+      <c r="J55" t="n">
+        <v>202</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2413,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1664605878.120897</v>
+        <v>1303107559.903573</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1420516123588697</v>
+        <v>0.1569076832570926</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04450998862448394</v>
+        <v>0.04366871503843407</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2448,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3884851178.283284</v>
+        <v>4157173416.860154</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1301085283536293</v>
+        <v>0.1634806390178668</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02431891280861165</v>
+        <v>0.02533256993431555</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>80</v>
+      </c>
+      <c r="J57" t="n">
+        <v>202</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2483,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1415839744.160548</v>
+        <v>1324797319.585112</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1451517558212611</v>
+        <v>0.1874902560114478</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02789265475454609</v>
+        <v>0.03978342933321035</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2518,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3934736909.004457</v>
+        <v>4838632344.628884</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1266050291231137</v>
+        <v>0.09906478029164073</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04773326939941743</v>
+        <v>0.03807235599876479</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>97</v>
+      </c>
+      <c r="J59" t="n">
+        <v>202</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2553,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2642700634.08447</v>
+        <v>3143320228.108934</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1974587708602834</v>
+        <v>0.1888022915414045</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02244727393985041</v>
+        <v>0.02796512552398232</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>29</v>
+      </c>
+      <c r="J60" t="n">
+        <v>199</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2594,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3340984371.868114</v>
+        <v>2864166589.138715</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1370925743681281</v>
+        <v>0.1477929940570276</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02928222928725965</v>
+        <v>0.02248779344794571</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2623,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1417878866.030511</v>
+        <v>1984839401.261617</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1614703471253587</v>
+        <v>0.1200600797223822</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04856144745616731</v>
+        <v>0.03108744519959001</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2658,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4846716615.806338</v>
+        <v>4912742628.316469</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0939445702583325</v>
+        <v>0.09491288686818697</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04248215974383623</v>
+        <v>0.04107966422847539</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>98</v>
+      </c>
+      <c r="J63" t="n">
+        <v>202</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,17 +2699,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3543893818.198167</v>
+        <v>4346903105.447443</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1667220695571732</v>
+        <v>0.1578690419230099</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03363082311688139</v>
+        <v>0.0286140900842857</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>99</v>
+      </c>
+      <c r="J64" t="n">
+        <v>202</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2728,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4621586427.393445</v>
+        <v>4619344406.968415</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1078372477098737</v>
+        <v>0.1173951706848917</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02772606022305824</v>
+        <v>0.02383459497170188</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>162</v>
+      </c>
+      <c r="J65" t="n">
+        <v>202</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2763,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5339156524.59164</v>
+        <v>5229154103.93396</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1533733535632498</v>
+        <v>0.1284158974073001</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04076113245525553</v>
+        <v>0.04715593381405012</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>99</v>
+      </c>
+      <c r="J66" t="n">
+        <v>202</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3018515125.060818</v>
+        <v>2418949847.054299</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06767743392030749</v>
+        <v>0.0655190760369929</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04646328192936292</v>
+        <v>0.03409139311558959</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>188</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3740164708.935168</v>
+        <v>3667399779.977599</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1014997723468144</v>
+        <v>0.1243537046868105</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04663738673064026</v>
+        <v>0.04003570869775039</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>102</v>
+      </c>
+      <c r="J68" t="n">
+        <v>201</v>
+      </c>
+      <c r="K68" t="n">
+        <v>109.0761326288546</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1681928120.642628</v>
+        <v>1544998116.204307</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1480422141772255</v>
+        <v>0.1509304344862571</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04818304952464891</v>
+        <v>0.05449851719465178</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3231951550.027482</v>
+        <v>3456739522.365785</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09093120462313685</v>
+        <v>0.09264689402923208</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04931968110996775</v>
+        <v>0.0496839546216772</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>30</v>
+      </c>
+      <c r="J70" t="n">
+        <v>198</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3466940957.50793</v>
+        <v>3414639176.863124</v>
       </c>
       <c r="F71" t="n">
-        <v>0.132897701820115</v>
+        <v>0.1580487581652862</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02549431627715226</v>
+        <v>0.02075345159335221</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>155</v>
+      </c>
+      <c r="J71" t="n">
+        <v>201</v>
+      </c>
+      <c r="K71" t="n">
+        <v>97.98722702987013</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1739166193.059877</v>
+        <v>1414606722.023347</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1057937360639503</v>
+        <v>0.09987926664531198</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03764818235240847</v>
+        <v>0.03401605460350065</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2267518408.55304</v>
+        <v>3220096324.98246</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08294322307725607</v>
+        <v>0.1084367932386791</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05107763018285279</v>
+        <v>0.03333828182865418</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>11</v>
+      </c>
+      <c r="J73" t="n">
+        <v>185</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3047,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3496893926.784103</v>
+        <v>3804638090.641156</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1809817963188153</v>
+        <v>0.1299375389642654</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03087624070753918</v>
+        <v>0.03325239564658207</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>58</v>
+      </c>
+      <c r="J74" t="n">
+        <v>202</v>
+      </c>
+      <c r="K74" t="n">
+        <v>125.6444571636011</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1935403983.641355</v>
+        <v>1924807526.689436</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1140354445366634</v>
+        <v>0.1587197789590364</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02924949429349984</v>
+        <v>0.02308559835720125</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3119,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3341130975.114843</v>
+        <v>4501311669.060099</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09922437255110679</v>
+        <v>0.07811976782694412</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02413432895954678</v>
+        <v>0.02937975647875718</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>92</v>
+      </c>
+      <c r="J76" t="n">
+        <v>202</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1762343733.562309</v>
+        <v>2179573213.281103</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1453959911036715</v>
+        <v>0.165306105739311</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02137273952286283</v>
+        <v>0.03037445574695283</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3231507548.285809</v>
+        <v>3916942320.787142</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09361165117253908</v>
+        <v>0.1020422035175735</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05557932433343143</v>
+        <v>0.03778911417665933</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>100</v>
+      </c>
+      <c r="J78" t="n">
+        <v>202</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1880844794.513281</v>
+        <v>1845571618.026094</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1490165318283558</v>
+        <v>0.1404295187169039</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03160473916203243</v>
+        <v>0.02493169959679357</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3259,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4004783412.684601</v>
+        <v>4435721893.364504</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06929967727448549</v>
+        <v>0.09095816316028074</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03283533472311909</v>
+        <v>0.02738276262665412</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>99</v>
+      </c>
+      <c r="J80" t="n">
+        <v>201</v>
+      </c>
+      <c r="K80" t="n">
+        <v>86.93646319747589</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +3302,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3368798115.331203</v>
+        <v>4279171181.862835</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1248931278004547</v>
+        <v>0.129581884595042</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03040388028148541</v>
+        <v>0.02825820523509641</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>93</v>
+      </c>
+      <c r="J81" t="n">
+        <v>201</v>
+      </c>
+      <c r="K81" t="n">
+        <v>104.0989017225546</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3333,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4067435801.612872</v>
+        <v>4817643545.328094</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1927998158293016</v>
+        <v>0.1881447380717293</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0254703511162609</v>
+        <v>0.02238372874440221</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>149</v>
+      </c>
+      <c r="J82" t="n">
+        <v>202</v>
+      </c>
+      <c r="K82" t="n">
+        <v>127.1830097102158</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3370,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1803783921.905183</v>
+        <v>1786310184.010655</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1111821254742869</v>
+        <v>0.1164145457971521</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03363273619198955</v>
+        <v>0.04317053289159058</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3405,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2600532159.077376</v>
+        <v>2411874452.276853</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07505280182641855</v>
+        <v>0.1141195172171113</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04289735979598289</v>
+        <v>0.04677191220578944</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3440,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3487639924.47373</v>
+        <v>2695886224.177305</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1784916082636318</v>
+        <v>0.1789714668777716</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05441895759566052</v>
+        <v>0.0352738564872618</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>28</v>
+      </c>
+      <c r="J85" t="n">
+        <v>197</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3475,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2341858047.037363</v>
+        <v>1816815733.499962</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1644142387827925</v>
+        <v>0.1263420986283265</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02562939919065004</v>
+        <v>0.02233472047739486</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3510,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1132844562.854837</v>
+        <v>1195173961.261635</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1583849370681838</v>
+        <v>0.1670082330279286</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03331035277242052</v>
+        <v>0.03409575985023659</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3545,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2452223073.392661</v>
+        <v>2836256215.728598</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1086859860280345</v>
+        <v>0.1093443383386778</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03569203706733034</v>
+        <v>0.0328420744001288</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>28</v>
+      </c>
+      <c r="J88" t="n">
+        <v>192</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3580,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3294709825.714414</v>
+        <v>2725094530.705962</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1400397295161412</v>
+        <v>0.1163010080642094</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03167010194471194</v>
+        <v>0.02760992225658907</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>14</v>
+      </c>
+      <c r="J89" t="n">
+        <v>190</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3615,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1313943699.464723</v>
+        <v>1726852014.108264</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1264985894534151</v>
+        <v>0.1189143226642166</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05624521644036721</v>
+        <v>0.0453480544776228</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3650,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1865107508.976998</v>
+        <v>1955528216.58672</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1849118531858585</v>
+        <v>0.1329650256215406</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04122393627048188</v>
+        <v>0.05329334194788057</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3685,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2637598935.143271</v>
+        <v>2134149253.261515</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08736901882717074</v>
+        <v>0.106797696000783</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03709297901909102</v>
+        <v>0.04681938370133336</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3720,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3572477486.023678</v>
+        <v>4822402812.091413</v>
       </c>
       <c r="F93" t="n">
-        <v>0.125890914498441</v>
+        <v>0.1109810938419808</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03853688968496791</v>
+        <v>0.04809345887350586</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>91</v>
+      </c>
+      <c r="J93" t="n">
+        <v>202</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1959721895.771832</v>
+        <v>2006420615.278938</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1139147821493038</v>
+        <v>0.1020042117242346</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03429166174445169</v>
+        <v>0.03503072620198788</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2299720164.462639</v>
+        <v>2155598778.296505</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08376036966077795</v>
+        <v>0.09059149871041679</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04143888694772511</v>
+        <v>0.03392875570296203</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3831,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2292947345.695793</v>
+        <v>1577307180.903415</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09366406322452769</v>
+        <v>0.08602317305976609</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03210815733954282</v>
+        <v>0.03547306048459513</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3727130961.768512</v>
+        <v>4589584860.833576</v>
       </c>
       <c r="F97" t="n">
-        <v>0.167584031110979</v>
+        <v>0.1403321961642857</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01818479716894634</v>
+        <v>0.02469137418560611</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>97</v>
+      </c>
+      <c r="J97" t="n">
+        <v>202</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2449791289.347891</v>
+        <v>3951901078.110596</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09153479591989076</v>
+        <v>0.1168859791639183</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02705633296859712</v>
+        <v>0.02564275497276714</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>50</v>
+      </c>
+      <c r="J98" t="n">
+        <v>202</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2544500232.86288</v>
+        <v>2083542049.508304</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1167441185518985</v>
+        <v>0.1222553987564563</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02279229152874681</v>
+        <v>0.02400675642620595</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4144243816.656344</v>
+        <v>4001955648.059687</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1354540698287556</v>
+        <v>0.1790218798705661</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02296125878628763</v>
+        <v>0.02269922674160383</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>83</v>
+      </c>
+      <c r="J100" t="n">
+        <v>202</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2354462078.579914</v>
+        <v>2254797826.910182</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1627469555815893</v>
+        <v>0.1452508761733565</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04566732714866104</v>
+        <v>0.05027420664877797</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
